--- a/raw_data/20200818_saline/20200818_Sensor3_Test_68.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_68.xlsx
@@ -1,1459 +1,1875 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545A3E1-6697-496A-88A8-F9CF77F18FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>60860.109490</v>
+        <v>60860.109490000003</v>
       </c>
       <c r="B2" s="1">
         <v>16.905586</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.410000</v>
+        <v>1148.4100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.274000</v>
+        <v>-255.274</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>60870.164886</v>
+        <v>60870.164885999999</v>
       </c>
       <c r="G2" s="1">
         <v>16.908379</v>
       </c>
       <c r="H2" s="1">
-        <v>1168.660000</v>
+        <v>1168.6600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-213.410000</v>
+        <v>-213.41</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>60880.656792</v>
+        <v>60880.656792000002</v>
       </c>
       <c r="L2" s="1">
-        <v>16.911294</v>
+        <v>16.911294000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.510000</v>
+        <v>1195.51</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.180000</v>
+        <v>-149.18</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>60891.158555</v>
+        <v>60891.158555000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.914211</v>
+        <v>16.914211000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.170000</v>
+        <v>1203.17</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.498000</v>
+        <v>-127.498</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>60901.754589</v>
+        <v>60901.754588999996</v>
       </c>
       <c r="V2" s="1">
         <v>16.917154</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.260000</v>
+        <v>1210.26</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.838000</v>
+        <v>-106.83799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>60912.174541</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.920048</v>
+        <v>16.920048000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1217.840000</v>
+        <v>1217.8399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.499900</v>
+        <v>-90.499899999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>60922.969473</v>
+        <v>60922.969472999997</v>
       </c>
       <c r="AF2" s="1">
         <v>16.923047</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.400000</v>
+        <v>1222.4000000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.133800</v>
+        <v>-86.133799999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>60933.408805</v>
+        <v>60933.408804999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.925947</v>
+        <v>16.925947000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.924500</v>
+        <v>-89.924499999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>60943.985492</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.928885</v>
+        <v>16.928885000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>60955.266470</v>
+        <v>60955.266470000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.932018</v>
+        <v>16.932017999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.887000</v>
+        <v>-121.887</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>60966.399211</v>
+        <v>60966.399211000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.935111</v>
+        <v>16.935110999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.530000</v>
+        <v>1256.53</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.634000</v>
+        <v>-139.63399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>60977.387048</v>
+        <v>60977.387047999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.938163</v>
+        <v>16.938162999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.295000</v>
+        <v>-222.29499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>60988.069385</v>
+        <v>60988.069385000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.941130</v>
+        <v>16.941130000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.030000</v>
+        <v>-359.03</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>60999.959978</v>
+        <v>60999.959977999999</v>
       </c>
       <c r="BO2" s="1">
         <v>16.944433</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.840000</v>
+        <v>1485.84</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.430000</v>
+        <v>-580.42999999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>61010.327579</v>
+        <v>61010.327578999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.947313</v>
+        <v>16.947313000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.080000</v>
+        <v>1620.08</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.596000</v>
+        <v>-828.596</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>61020.714574</v>
+        <v>61020.714573999998</v>
       </c>
       <c r="BY2" s="1">
         <v>16.950198</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.880000</v>
+        <v>1774.88</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1098.160000</v>
+        <v>-1098.1600000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>61031.586880</v>
+        <v>61031.586880000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.953219</v>
+        <v>16.953219000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2198.020000</v>
+        <v>2198.02</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1746.820000</v>
+        <v>-1746.82</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>60860.465620</v>
+        <v>60860.465620000003</v>
       </c>
       <c r="B3" s="1">
-        <v>16.905685</v>
+        <v>16.905684999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.210000</v>
+        <v>1148.21</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.079000</v>
+        <v>-255.07900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>60870.589988</v>
       </c>
       <c r="G3" s="1">
-        <v>16.908497</v>
+        <v>16.908497000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1168.710000</v>
+        <v>1168.71</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.371000</v>
+        <v>-214.37100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>60881.054087</v>
+        <v>60881.054086999997</v>
       </c>
       <c r="L3" s="1">
-        <v>16.911404</v>
+        <v>16.911404000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.320000</v>
+        <v>1195.32</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.139000</v>
+        <v>-149.13900000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>60891.569769</v>
+        <v>60891.569769000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.914325</v>
+        <v>16.914325000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.190000</v>
+        <v>1203.19</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.519000</v>
+        <v>-127.51900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>60902.111709</v>
+        <v>60902.111708999997</v>
       </c>
       <c r="V3" s="1">
-        <v>16.917253</v>
+        <v>16.917252999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.400000</v>
+        <v>1210.4000000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.022000</v>
+        <v>-107.02200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>60912.560431</v>
+        <v>60912.560430999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.920156</v>
+        <v>16.920155999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.367200</v>
+        <v>-90.367199999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>60923.352192</v>
+        <v>60923.352191999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.923153</v>
+        <v>16.923152999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.228400</v>
+        <v>-86.228399999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>60934.141893</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.926151</v>
+        <v>16.926151000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.918100</v>
+        <v>-89.918099999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>60944.733445</v>
+        <v>60944.733444999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.929093</v>
+        <v>16.929093000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>60955.668756</v>
+        <v>60955.668755999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.932130</v>
+        <v>16.932130000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.882000</v>
+        <v>-121.88200000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>60966.797959</v>
+        <v>60966.797959000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>16.935222</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.550000</v>
+        <v>1256.55</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.621000</v>
+        <v>-139.62100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>60977.750119</v>
+        <v>60977.750118999997</v>
       </c>
       <c r="BE3" s="1">
         <v>16.938264</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.288000</v>
+        <v>-222.28800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>60988.790072</v>
+        <v>60988.790072000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.941331</v>
+        <v>16.941331000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.020000</v>
+        <v>1369.02</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.040000</v>
+        <v>-359.04</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>61000.080010</v>
+        <v>61000.080009999998</v>
       </c>
       <c r="BO3" s="1">
         <v>16.944467</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.840000</v>
+        <v>1485.84</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.363000</v>
+        <v>-580.36300000000006</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>61010.467228</v>
+        <v>61010.467228000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.947352</v>
+        <v>16.947351999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.030000</v>
+        <v>1620.03</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.712000</v>
+        <v>-828.71199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>61021.180850</v>
+        <v>61021.180849999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.950328</v>
+        <v>16.950327999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.950000</v>
+        <v>1774.95</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1098.160000</v>
+        <v>-1098.1600000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>61032.164721</v>
+        <v>61032.164721000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.953379</v>
+        <v>16.953379000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2195.400000</v>
+        <v>2195.4</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1747.610000</v>
+        <v>-1747.61</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>60860.890948</v>
       </c>
       <c r="B4" s="1">
-        <v>16.905803</v>
+        <v>16.905802999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.120000</v>
+        <v>1148.1199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-255.238000</v>
+        <v>-255.238</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60870.890533</v>
+        <v>60870.890532999998</v>
       </c>
       <c r="G4" s="1">
-        <v>16.908581</v>
+        <v>16.908581000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1168.700000</v>
+        <v>1168.7</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.382000</v>
+        <v>-213.38200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>60881.399287</v>
       </c>
       <c r="L4" s="1">
-        <v>16.911500</v>
+        <v>16.9115</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.320000</v>
+        <v>1195.32</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.968000</v>
+        <v>-148.96799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>60891.919416</v>
+        <v>60891.919415999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.914422</v>
+        <v>16.914421999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.100000</v>
+        <v>1203.0999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.496000</v>
+        <v>-127.496</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>60902.454446</v>
+        <v>60902.454446000003</v>
       </c>
       <c r="V4" s="1">
         <v>16.917348</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.240000</v>
+        <v>1210.24</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.035000</v>
+        <v>-107.035</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>60913.256355</v>
+        <v>60913.256354999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.920349</v>
+        <v>16.920349000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1217.810000</v>
+        <v>1217.81</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.354200</v>
+        <v>-90.354200000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>60924.037854</v>
+        <v>60924.037854000002</v>
       </c>
       <c r="AF4" s="1">
         <v>16.923344</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.530000</v>
+        <v>1222.53</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.197700</v>
+        <v>-86.197699999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>60934.490080</v>
+        <v>60934.490080000003</v>
       </c>
       <c r="AK4" s="1">
         <v>16.926247</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.899100</v>
+        <v>-89.899100000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>60945.092034</v>
+        <v>60945.092034000001</v>
       </c>
       <c r="AP4" s="1">
         <v>16.929192</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.680000</v>
+        <v>1237.68</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>60956.034308</v>
+        <v>60956.034308000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.932232</v>
+        <v>16.932231999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.900000</v>
+        <v>1247.9000000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.860000</v>
+        <v>-121.86</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>60967.471061</v>
+        <v>60967.471060999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>16.935409</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.627000</v>
+        <v>-139.62700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>60978.351271</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.938431</v>
+        <v>16.938431000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.289000</v>
+        <v>-222.28899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>60989.262264</v>
+        <v>60989.262263999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.941462</v>
+        <v>16.941462000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.960000</v>
+        <v>1368.96</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.052000</v>
+        <v>-359.05200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>61000.508057</v>
+        <v>61000.508056999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.944586</v>
+        <v>16.944586000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.840000</v>
+        <v>1485.84</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.403000</v>
+        <v>-580.40300000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>61010.879404</v>
+        <v>61010.879403999999</v>
       </c>
       <c r="BT4" s="1">
         <v>16.947467</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.060000</v>
+        <v>1620.06</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.764000</v>
+        <v>-828.76400000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>61021.627213</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.950452</v>
+        <v>16.950451999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.830000</v>
+        <v>1774.83</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.940000</v>
+        <v>-1097.94</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>61032.699439</v>
+        <v>61032.699439000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.953528</v>
+        <v>16.953527999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2197.890000</v>
+        <v>2197.89</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1746.890000</v>
+        <v>-1746.89</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>60861.168947</v>
+        <v>60861.168946999998</v>
       </c>
       <c r="B5" s="1">
-        <v>16.905880</v>
+        <v>16.90588</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.120000</v>
+        <v>1148.1199999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-255.035000</v>
+        <v>-255.035</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>60871.232308</v>
+        <v>60871.232307999999</v>
       </c>
       <c r="G5" s="1">
         <v>16.908676</v>
       </c>
       <c r="H5" s="1">
-        <v>1168.780000</v>
+        <v>1168.78</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.376000</v>
+        <v>-214.376</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>60881.748950</v>
+        <v>60881.748950000001</v>
       </c>
       <c r="L5" s="1">
         <v>16.911597</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.310000</v>
+        <v>1195.31</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.172000</v>
+        <v>-149.172</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>60892.269096</v>
+        <v>60892.269096000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.914519</v>
+        <v>16.914518999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.080000</v>
+        <v>1203.08</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.453000</v>
+        <v>-127.453</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>60903.141898</v>
+        <v>60903.141898000002</v>
       </c>
       <c r="V5" s="1">
-        <v>16.917539</v>
+        <v>16.917539000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.380000</v>
+        <v>1210.3800000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.038000</v>
+        <v>-107.038</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>60913.606030</v>
+        <v>60913.606030000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.920446</v>
+        <v>16.920445999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1217.910000</v>
+        <v>1217.9100000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.441200</v>
+        <v>-90.441199999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>60924.382104</v>
+        <v>60924.382103999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.923439</v>
+        <v>16.923438999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.740000</v>
+        <v>1222.74</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.238100</v>
+        <v>-86.238100000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>60934.839760</v>
+        <v>60934.839760000003</v>
       </c>
       <c r="AK5" s="1">
         <v>16.926344</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.897000</v>
+        <v>-89.897000000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>60945.759153</v>
+        <v>60945.759152999999</v>
       </c>
       <c r="AP5" s="1">
         <v>16.929378</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.171000</v>
+        <v>-102.17100000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>60956.706398</v>
+        <v>60956.706398000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.932418</v>
+        <v>16.932417999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.910000</v>
+        <v>-121.91</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>60967.873813</v>
+        <v>60967.873812999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.935521</v>
+        <v>16.935521000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.550000</v>
+        <v>1256.55</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.583000</v>
+        <v>-139.583</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>60978.478246</v>
+        <v>60978.478245999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.938466</v>
+        <v>16.938465999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.312000</v>
+        <v>-222.31200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>60989.637241</v>
+        <v>60989.637240999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.941566</v>
+        <v>16.941566000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.990000</v>
+        <v>1368.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.036000</v>
+        <v>-359.036</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>61000.906841</v>
+        <v>61000.906841000004</v>
       </c>
       <c r="BO5" s="1">
         <v>16.944696</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.790000</v>
+        <v>1485.79</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.406000</v>
+        <v>-580.40599999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>61011.590699</v>
@@ -1462,951 +1878,951 @@
         <v>16.947664</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.870000</v>
+        <v>1619.87</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.818000</v>
+        <v>-828.81799999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>61022.058733</v>
+        <v>61022.058732999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.950572</v>
+        <v>16.950572000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.760000</v>
+        <v>1774.76</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1098.160000</v>
+        <v>-1098.1600000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>61033.217264</v>
+        <v>61033.217263999999</v>
       </c>
       <c r="CD5" s="1">
         <v>16.953671</v>
       </c>
       <c r="CE5" s="1">
-        <v>2197.500000</v>
+        <v>2197.5</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1747.270000</v>
+        <v>-1747.27</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>60861.510726</v>
       </c>
       <c r="B6" s="1">
-        <v>16.905975</v>
+        <v>16.905975000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1147.900000</v>
+        <v>1147.9000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-255.051000</v>
+        <v>-255.05099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>60871.576501</v>
+        <v>60871.576501000003</v>
       </c>
       <c r="G6" s="1">
-        <v>16.908771</v>
+        <v>16.908771000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1168.800000</v>
+        <v>1168.8</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.196000</v>
+        <v>-214.196</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>60882.436902</v>
+        <v>60882.436902000001</v>
       </c>
       <c r="L6" s="1">
-        <v>16.911788</v>
+        <v>16.911788000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.650000</v>
+        <v>1195.6500000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.247000</v>
+        <v>-149.24700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>60892.967463</v>
+        <v>60892.967463000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.914713</v>
+        <v>16.914712999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.120000</v>
+        <v>1203.1199999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.425000</v>
+        <v>-127.425</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>60903.486121</v>
+        <v>60903.486121000002</v>
       </c>
       <c r="V6" s="1">
-        <v>16.917635</v>
+        <v>16.917635000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.490000</v>
+        <v>1210.49</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.265000</v>
+        <v>-107.265</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>60913.952886</v>
+        <v>60913.952885999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.920542</v>
+        <v>16.920542000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.810000</v>
+        <v>1217.81</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.394900</v>
+        <v>-90.394900000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>60924.725310</v>
+        <v>60924.725310000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.923535</v>
+        <v>16.923535000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.530000</v>
+        <v>1222.53</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.200700</v>
+        <v>-86.200699999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>60935.496958</v>
+        <v>60935.496958000003</v>
       </c>
       <c r="AK6" s="1">
         <v>16.926527</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.904500</v>
+        <v>-89.904499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>60946.204592</v>
+        <v>60946.204592000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.929501</v>
+        <v>16.929500999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>60957.159239</v>
+        <v>60957.159239000001</v>
       </c>
       <c r="AU6" s="1">
         <v>16.932544</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.896000</v>
+        <v>-121.896</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>60968.257189</v>
+        <v>60968.257189000004</v>
       </c>
       <c r="AZ6" s="1">
         <v>16.935627</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.530000</v>
+        <v>1256.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.650000</v>
+        <v>-139.65</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>60978.865653</v>
+        <v>60978.865653000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.938574</v>
+        <v>16.938573999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.297000</v>
+        <v>-222.297</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>60990.018168</v>
+        <v>60990.018168000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.941672</v>
+        <v>16.941672000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.010000</v>
+        <v>1369.01</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.051000</v>
+        <v>-359.05099999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>61001.341833</v>
+        <v>61001.341832999999</v>
       </c>
       <c r="BO6" s="1">
         <v>16.944817</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.790000</v>
+        <v>1485.79</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.426000</v>
+        <v>-580.42600000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>61011.736986</v>
+        <v>61011.736986000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.947705</v>
+        <v>16.947704999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.860000</v>
+        <v>1619.86</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.880000</v>
+        <v>-828.88</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>61022.480333</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.950689</v>
+        <v>16.950689000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.840000</v>
+        <v>1774.84</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1098.340000</v>
+        <v>-1098.3399999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>61033.769309</v>
+        <v>61033.769309000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.953825</v>
+        <v>16.953824999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>2195.560000</v>
+        <v>2195.56</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1747.680000</v>
+        <v>-1747.68</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>60861.852434</v>
       </c>
       <c r="B7" s="1">
-        <v>16.906070</v>
+        <v>16.90607</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.270000</v>
+        <v>1148.27</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.987000</v>
+        <v>-254.98699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>60872.263955</v>
+        <v>60872.263955000002</v>
       </c>
       <c r="G7" s="1">
-        <v>16.908962</v>
+        <v>16.908961999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.640000</v>
+        <v>1169.6400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.371000</v>
+        <v>-213.37100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>60882.787109</v>
+        <v>60882.787108999997</v>
       </c>
       <c r="L7" s="1">
-        <v>16.911885</v>
+        <v>16.911885000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.610000</v>
+        <v>1195.6099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.122000</v>
+        <v>-149.12200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>60893.313706</v>
+        <v>60893.313706000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.914809</v>
+        <v>16.914809000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.180000</v>
+        <v>1203.18</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.480000</v>
+        <v>-127.48</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>60903.830345</v>
+        <v>60903.830345000002</v>
       </c>
       <c r="V7" s="1">
         <v>16.917731</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.430000</v>
+        <v>1210.43</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.973000</v>
+        <v>-106.973</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>60914.616384</v>
+        <v>60914.616384000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.920727</v>
+        <v>16.920726999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1217.810000</v>
+        <v>1217.81</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.395900</v>
+        <v>-90.395899999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>60925.382541</v>
+        <v>60925.382540999999</v>
       </c>
       <c r="AF7" s="1">
         <v>16.923717</v>
       </c>
       <c r="AG7" s="1">
-        <v>1222.360000</v>
+        <v>1222.3599999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.176700</v>
+        <v>-86.176699999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>60935.883312</v>
+        <v>60935.883311999998</v>
       </c>
       <c r="AK7" s="1">
         <v>16.926634</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.912000</v>
+        <v>-89.912000000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>60946.561184</v>
+        <v>60946.561183999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.929600</v>
+        <v>16.929600000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.670000</v>
+        <v>1237.67</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.175000</v>
+        <v>-102.175</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>60957.521283</v>
+        <v>60957.521283000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.932645</v>
+        <v>16.932645000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.893000</v>
+        <v>-121.893</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>60968.617812</v>
+        <v>60968.617811999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>16.935727</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.668000</v>
+        <v>-139.66800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>60979.288741</v>
+        <v>60979.288740999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.938691</v>
+        <v>16.938690999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.316000</v>
+        <v>-222.316</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>60990.437819</v>
+        <v>60990.437818999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.941788</v>
+        <v>16.941787999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.990000</v>
+        <v>1368.99</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.049000</v>
+        <v>-359.04899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>61001.726232</v>
+        <v>61001.726232000001</v>
       </c>
       <c r="BO7" s="1">
         <v>16.944924</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.870000</v>
+        <v>1485.87</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.389000</v>
+        <v>-580.38900000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>61012.149161</v>
+        <v>61012.149161000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.947819</v>
+        <v>16.947818999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.770000</v>
+        <v>1619.77</v>
       </c>
       <c r="BV7" s="1">
-        <v>-828.978000</v>
+        <v>-828.97799999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>61022.898955</v>
+        <v>61022.898954999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.950805</v>
+        <v>16.950804999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.920000</v>
+        <v>1774.92</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1098.200000</v>
+        <v>-1098.2</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>61034.300494</v>
+        <v>61034.300494000003</v>
       </c>
       <c r="CD7" s="1">
         <v>16.953972</v>
       </c>
       <c r="CE7" s="1">
-        <v>2197.750000</v>
+        <v>2197.75</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1746.780000</v>
+        <v>-1746.78</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>60862.535423</v>
+        <v>60862.535423000001</v>
       </c>
       <c r="B8" s="1">
-        <v>16.906260</v>
+        <v>16.90626</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.270000</v>
+        <v>1148.27</v>
       </c>
       <c r="D8" s="1">
-        <v>-255.192000</v>
+        <v>-255.19200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>60872.614130</v>
+        <v>60872.614130000002</v>
       </c>
       <c r="G8" s="1">
-        <v>16.909059</v>
+        <v>16.909058999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.120000</v>
+        <v>1169.1199999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.103000</v>
+        <v>-214.10300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>60883.133286</v>
+        <v>60883.133285999997</v>
       </c>
       <c r="L8" s="1">
-        <v>16.911981</v>
+        <v>16.911981000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.630000</v>
+        <v>1195.6300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.198000</v>
+        <v>-149.19800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>60893.662360</v>
+        <v>60893.662360000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.914906</v>
+        <v>16.914905999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.140000</v>
+        <v>1203.1400000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.482000</v>
+        <v>-127.482</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>60904.500936</v>
+        <v>60904.500935999997</v>
       </c>
       <c r="V8" s="1">
-        <v>16.917917</v>
+        <v>16.917916999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.865000</v>
+        <v>-106.86499999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>60914.996779</v>
+        <v>60914.996779000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.920832</v>
+        <v>16.920832000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.830000</v>
+        <v>1217.83</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.483300</v>
+        <v>-90.4833</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>60925.754509</v>
+        <v>60925.754508999999</v>
       </c>
       <c r="AF8" s="1">
         <v>16.923821</v>
       </c>
       <c r="AG8" s="1">
-        <v>1222.540000</v>
+        <v>1222.54</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.075800</v>
+        <v>-86.075800000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>60936.234184</v>
+        <v>60936.234184000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.926732</v>
+        <v>16.926732000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.873500</v>
+        <v>-89.873500000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>60946.923265</v>
+        <v>60946.923264999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.929701</v>
+        <v>16.929701000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.720000</v>
+        <v>1237.72</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.216000</v>
+        <v>-102.21599999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>60957.888355</v>
+        <v>60957.888355000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.932747</v>
+        <v>16.932746999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.907000</v>
+        <v>-121.907</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>60969.038882</v>
+        <v>60969.038882000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.935844</v>
+        <v>16.935843999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.651000</v>
+        <v>-139.65100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>60979.589284</v>
+        <v>60979.589284000001</v>
       </c>
       <c r="BE8" s="1">
         <v>16.938775</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.288000</v>
+        <v>-222.28800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>60990.785479</v>
+        <v>60990.785478999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.941885</v>
+        <v>16.941884999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.990000</v>
+        <v>1368.99</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.013000</v>
+        <v>-359.01299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>61002.143398</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.945040</v>
+        <v>16.945039999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.840000</v>
+        <v>1485.84</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.368000</v>
+        <v>-580.36800000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>61012.582697</v>
+        <v>61012.582696999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.947940</v>
+        <v>16.947939999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.810000</v>
+        <v>1619.81</v>
       </c>
       <c r="BV8" s="1">
-        <v>-828.964000</v>
+        <v>-828.96400000000006</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>61023.328987</v>
+        <v>61023.328987000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.950925</v>
+        <v>16.950925000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.920000</v>
+        <v>1774.92</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1098.170000</v>
+        <v>-1098.17</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>61034.817325</v>
+        <v>61034.817325000004</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.954116</v>
+        <v>16.954115999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2196.350000</v>
+        <v>2196.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1745.000000</v>
+        <v>-1745</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>60862.873205</v>
+        <v>60862.873205000004</v>
       </c>
       <c r="B9" s="1">
         <v>16.906354</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.460000</v>
+        <v>1148.46</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.120000</v>
+        <v>-255.12</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>60872.956866</v>
       </c>
       <c r="G9" s="1">
-        <v>16.909155</v>
+        <v>16.909154999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1168.910000</v>
+        <v>1168.9100000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.614000</v>
+        <v>-213.614</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>60883.788003</v>
+        <v>60883.788003000001</v>
       </c>
       <c r="L9" s="1">
         <v>16.912163</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.380000</v>
+        <v>1195.3800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.152000</v>
+        <v>-149.15199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>60894.333445</v>
+        <v>60894.333444999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.915093</v>
+        <v>16.915092999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.090000</v>
+        <v>1203.0899999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.433000</v>
+        <v>-127.43300000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>60904.859543</v>
+        <v>60904.859542999999</v>
       </c>
       <c r="V9" s="1">
-        <v>16.918017</v>
+        <v>16.918016999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.270000</v>
+        <v>1210.27</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.925000</v>
+        <v>-106.925</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>60915.347946</v>
+        <v>60915.347946000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.920930</v>
+        <v>16.920929999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.361700</v>
+        <v>-90.361699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>60926.099755</v>
+        <v>60926.099755000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.923917</v>
+        <v>16.923916999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.196000</v>
+        <v>-86.195999999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>60936.582174</v>
+        <v>60936.582174000003</v>
       </c>
       <c r="AK9" s="1">
         <v>16.926828</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.902300</v>
+        <v>-89.902299999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>60947.351809</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.929820</v>
+        <v>16.929819999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.185000</v>
+        <v>-102.185</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>60958.315638</v>
@@ -2415,557 +2831,557 @@
         <v>16.932865</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.914000</v>
+        <v>-121.914</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>60969.334002</v>
+        <v>60969.334002000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.935926</v>
+        <v>16.935925999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.616000</v>
+        <v>-139.61600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>60979.952884</v>
+        <v>60979.952883999998</v>
       </c>
       <c r="BE9" s="1">
         <v>16.938876</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.291000</v>
+        <v>-222.291</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>60991.161942</v>
+        <v>60991.161941999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>16.941989</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.990000</v>
+        <v>1368.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.060000</v>
+        <v>-359.06</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>61002.540167</v>
+        <v>61002.540166999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.945150</v>
+        <v>16.945150000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.850000</v>
+        <v>1485.85</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.416000</v>
+        <v>-580.41600000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>61013.008728</v>
+        <v>61013.008728000001</v>
       </c>
       <c r="BT9" s="1">
         <v>16.948058</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.790000</v>
+        <v>1619.79</v>
       </c>
       <c r="BV9" s="1">
-        <v>-829.110000</v>
+        <v>-829.11</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>61023.753597</v>
+        <v>61023.753597000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.951043</v>
+        <v>16.951042999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.680000</v>
+        <v>1774.68</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1098.290000</v>
+        <v>-1098.29</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>61035.335148</v>
+        <v>61035.335147999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.954260</v>
+        <v>16.954260000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2195.190000</v>
+        <v>2195.19</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1746.900000</v>
+        <v>-1746.9</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>60863.524051</v>
       </c>
       <c r="B10" s="1">
-        <v>16.906534</v>
+        <v>16.906534000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.220000</v>
+        <v>1148.22</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.084000</v>
+        <v>-255.084</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>60873.606481</v>
+        <v>60873.606481000003</v>
       </c>
       <c r="G10" s="1">
-        <v>16.909335</v>
+        <v>16.909334999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1168.700000</v>
+        <v>1168.7</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.057000</v>
+        <v>-215.05699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>60884.169426</v>
       </c>
       <c r="L10" s="1">
-        <v>16.912269</v>
+        <v>16.912268999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.490000</v>
+        <v>1195.49</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.014000</v>
+        <v>-149.01400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>60894.710405</v>
+        <v>60894.710404999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.915197</v>
+        <v>16.915196999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.060000</v>
+        <v>1203.06</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.458000</v>
+        <v>-127.458</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>60905.202280</v>
+        <v>60905.202279999998</v>
       </c>
       <c r="V10" s="1">
-        <v>16.918112</v>
+        <v>16.918112000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.974000</v>
+        <v>-106.974</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>60915.694153</v>
+        <v>60915.694152999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.921026</v>
+        <v>16.921026000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1217.830000</v>
+        <v>1217.83</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.436800</v>
+        <v>-90.436800000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>60926.449403</v>
+        <v>60926.449402999999</v>
       </c>
       <c r="AF10" s="1">
         <v>16.924014</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.155000</v>
+        <v>-86.155000000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>60937.002781</v>
+        <v>60937.002781000003</v>
       </c>
       <c r="AK10" s="1">
         <v>16.926945</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.896800</v>
+        <v>-89.896799999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>60947.644977</v>
+        <v>60947.644977000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.929901</v>
+        <v>16.929901000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.197000</v>
+        <v>-102.197</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>60958.617442</v>
+        <v>60958.617442000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.932949</v>
+        <v>16.932949000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.887000</v>
+        <v>-121.887</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>60969.691617</v>
+        <v>60969.691616999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.936025</v>
+        <v>16.936025000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.570000</v>
+        <v>1256.57</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.648000</v>
+        <v>-139.648</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>60980.311492</v>
+        <v>60980.311492000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.938975</v>
+        <v>16.938974999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.670000</v>
+        <v>1297.67</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.293000</v>
+        <v>-222.29300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>60991.535926</v>
+        <v>60991.535925999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>16.942093</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.001000</v>
+        <v>-359.00099999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>61002.977642</v>
+        <v>61002.977641999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.945272</v>
+        <v>16.945271999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.830000</v>
+        <v>1485.83</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.409000</v>
+        <v>-580.40899999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>61013.420911</v>
+        <v>61013.420911000001</v>
       </c>
       <c r="BT10" s="1">
         <v>16.948172</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.820000</v>
+        <v>1619.82</v>
       </c>
       <c r="BV10" s="1">
-        <v>-829.239000</v>
+        <v>-829.23900000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>61024.193022</v>
+        <v>61024.193021999999</v>
       </c>
       <c r="BY10" s="1">
         <v>16.951165</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.790000</v>
+        <v>1774.79</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1098.330000</v>
+        <v>-1098.33</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>61035.852506</v>
+        <v>61035.852506000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.954403</v>
+        <v>16.954402999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2194.980000</v>
+        <v>2194.98</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1746.400000</v>
+        <v>-1746.4</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>60863.898926</v>
+        <v>60863.898926000002</v>
       </c>
       <c r="B11" s="1">
-        <v>16.906639</v>
+        <v>16.906638999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.070000</v>
+        <v>1148.07</v>
       </c>
       <c r="D11" s="1">
-        <v>-255.373000</v>
+        <v>-255.37299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>60873.989782</v>
+        <v>60873.989781999997</v>
       </c>
       <c r="G11" s="1">
-        <v>16.909442</v>
+        <v>16.909441999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1168.220000</v>
+        <v>1168.22</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.999000</v>
+        <v>-213.999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>60884.516130</v>
+        <v>60884.516130000004</v>
       </c>
       <c r="L11" s="1">
-        <v>16.912366</v>
+        <v>16.912365999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.222000</v>
+        <v>-149.22200000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>60895.061078</v>
+        <v>60895.061077999999</v>
       </c>
       <c r="Q11" s="1">
         <v>16.915295</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.170000</v>
+        <v>1203.17</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.437000</v>
+        <v>-127.437</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>60905.548023</v>
+        <v>60905.548023000003</v>
       </c>
       <c r="V11" s="1">
         <v>16.918208</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.190000</v>
+        <v>1210.19</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.084000</v>
+        <v>-107.084</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>60916.122238</v>
+        <v>60916.122238000004</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.921145</v>
+        <v>16.921144999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.479100</v>
+        <v>-90.479100000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>60926.875978</v>
+        <v>60926.875977999996</v>
       </c>
       <c r="AF11" s="1">
         <v>16.924132</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.510000</v>
+        <v>1222.51</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.132100</v>
+        <v>-86.132099999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>60937.281068</v>
+        <v>60937.281067999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.927023</v>
+        <v>16.927022999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.890800</v>
+        <v>-89.890799999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>60948.006559</v>
+        <v>60948.006559000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.930002</v>
+        <v>16.930002000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.197000</v>
+        <v>-102.197</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>60958.982251</v>
+        <v>60958.982251000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.933051</v>
+        <v>16.933050999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.853000</v>
+        <v>-121.85299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>60970.051713</v>
+        <v>60970.051713000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.936125</v>
+        <v>16.936125000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.649000</v>
+        <v>-139.649</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>60981.032675</v>
+        <v>60981.032675000002</v>
       </c>
       <c r="BE11" s="1">
         <v>16.939176</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.710000</v>
+        <v>1297.71</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.328000</v>
+        <v>-222.328</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>60992.303732</v>
@@ -2974,210 +3390,210 @@
         <v>16.942307</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.021000</v>
+        <v>-359.02100000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>61003.358071</v>
+        <v>61003.358071000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.945377</v>
+        <v>16.945377000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.800000</v>
+        <v>1485.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.405000</v>
+        <v>-580.40499999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>61013.852456</v>
+        <v>61013.852456000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.948292</v>
+        <v>16.948291999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.860000</v>
+        <v>1619.86</v>
       </c>
       <c r="BV11" s="1">
-        <v>-829.239000</v>
+        <v>-829.23900000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>61024.613129</v>
+        <v>61024.613128999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.951281</v>
+        <v>16.951281000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.980000</v>
+        <v>1774.98</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1098.170000</v>
+        <v>-1098.17</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>61036.718490</v>
+        <v>61036.718489999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.954644</v>
+        <v>16.954643999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2195.990000</v>
+        <v>2195.9899999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.250000</v>
+        <v>-1745.25</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>60864.247650</v>
+        <v>60864.247649999998</v>
       </c>
       <c r="B12" s="1">
-        <v>16.906735</v>
+        <v>16.906735000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.210000</v>
+        <v>1148.21</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.060000</v>
+        <v>-255.06</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>60874.336736</v>
+        <v>60874.336735999997</v>
       </c>
       <c r="G12" s="1">
-        <v>16.909538</v>
+        <v>16.909538000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1168.650000</v>
+        <v>1168.6500000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-213.998000</v>
+        <v>-213.99799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>60884.860882</v>
+        <v>60884.860882000001</v>
       </c>
       <c r="L12" s="1">
         <v>16.912461</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.510000</v>
+        <v>1195.51</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.155000</v>
+        <v>-149.155</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>60895.622053</v>
+        <v>60895.622052999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.915451</v>
+        <v>16.915451000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.170000</v>
+        <v>1203.17</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.461000</v>
+        <v>-127.461</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>60905.973590</v>
+        <v>60905.973590000001</v>
       </c>
       <c r="V12" s="1">
         <v>16.918326</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.997000</v>
+        <v>-106.997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>60916.615225</v>
+        <v>60916.615225000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.921282</v>
+        <v>16.921282000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1217.820000</v>
+        <v>1217.82</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.470800</v>
+        <v>-90.470799999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>60927.158682</v>
+        <v>60927.158682000001</v>
       </c>
       <c r="AF12" s="1">
         <v>16.924211</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.063300</v>
+        <v>-86.063299999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60937.627275</v>
+        <v>60937.627274999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.927119</v>
+        <v>16.927119000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.930700</v>
+        <v>-89.930700000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>60948.365632</v>
+        <v>60948.365632000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.930102</v>
+        <v>16.930102000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.720000</v>
+        <v>1237.72</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.175000</v>
+        <v>-102.175</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>60959.348048</v>
@@ -3186,121 +3602,121 @@
         <v>16.933152</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.891000</v>
+        <v>-121.89100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>60970.773394</v>
+        <v>60970.773394000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.936326</v>
+        <v>16.936326000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.633000</v>
+        <v>-139.63300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>60981.424483</v>
+        <v>60981.424483000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.939285</v>
+        <v>16.939285000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.319000</v>
+        <v>-222.31899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>60992.678707</v>
+        <v>60992.678706999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>16.942411</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.075000</v>
+        <v>-359.07499999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>61003.781188</v>
+        <v>61003.781188000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.945495</v>
+        <v>16.945495000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.830000</v>
+        <v>1485.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.445000</v>
+        <v>-580.44500000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>61014.591462</v>
+        <v>61014.591461999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.948498</v>
+        <v>16.948498000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.880000</v>
+        <v>1619.88</v>
       </c>
       <c r="BV12" s="1">
-        <v>-829.292000</v>
+        <v>-829.29200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>61025.346714</v>
+        <v>61025.346713999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.951485</v>
+        <v>16.951485000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.810000</v>
+        <v>1774.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.950000</v>
+        <v>-1097.95</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>61036.934250</v>
+        <v>61036.934249999998</v>
       </c>
       <c r="CD12" s="1">
         <v>16.954704</v>
       </c>
       <c r="CE12" s="1">
-        <v>2195.660000</v>
+        <v>2195.66</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1747.400000</v>
+        <v>-1747.4</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>60864.592332</v>
       </c>
@@ -3308,1221 +3724,1221 @@
         <v>16.906831</v>
       </c>
       <c r="C13" s="1">
-        <v>1147.940000</v>
+        <v>1147.94</v>
       </c>
       <c r="D13" s="1">
-        <v>-255.178000</v>
+        <v>-255.178</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>60874.680959</v>
+        <v>60874.680958999998</v>
       </c>
       <c r="G13" s="1">
         <v>16.909634</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.140000</v>
+        <v>1169.1400000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.850000</v>
+        <v>-213.85</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>60885.288897</v>
+        <v>60885.288896999999</v>
       </c>
       <c r="L13" s="1">
-        <v>16.912580</v>
+        <v>16.912579999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.300000</v>
+        <v>1195.3</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.957000</v>
+        <v>-148.95699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>60895.756009</v>
+        <v>60895.756008999997</v>
       </c>
       <c r="Q13" s="1">
         <v>16.915488</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.160000</v>
+        <v>1203.1600000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.501000</v>
+        <v>-127.501</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>60906.242391</v>
       </c>
       <c r="V13" s="1">
-        <v>16.918401</v>
+        <v>16.918400999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.410000</v>
+        <v>1210.4100000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.819000</v>
+        <v>-106.819</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>60916.974363</v>
+        <v>60916.974363000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.921382</v>
+        <v>16.921382000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.364000</v>
+        <v>-90.364000000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>60927.497450</v>
+        <v>60927.497450000003</v>
       </c>
       <c r="AF13" s="1">
         <v>16.924305</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.490000</v>
+        <v>1222.49</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.161900</v>
+        <v>-86.161900000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>60937.974476</v>
+        <v>60937.974476000003</v>
       </c>
       <c r="AK13" s="1">
         <v>16.927215</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.900100</v>
+        <v>-89.900099999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>60949.091318</v>
+        <v>60949.091317999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.930303</v>
+        <v>16.930302999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.207000</v>
+        <v>-102.20699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>60960.075678</v>
+        <v>60960.075678000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.933354</v>
+        <v>16.933354000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.891000</v>
+        <v>-121.89100000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>60971.148368</v>
+        <v>60971.148368000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.936430</v>
+        <v>16.936430000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.580000</v>
+        <v>1256.58</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.611000</v>
+        <v>-139.61099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>60981.805435</v>
+        <v>60981.805435000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.939390</v>
+        <v>16.93939</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.690000</v>
+        <v>1297.69</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.310000</v>
+        <v>-222.31</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>60993.053682</v>
+        <v>60993.053681999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>16.942515</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.990000</v>
+        <v>1368.99</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.072000</v>
+        <v>-359.072</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>61004.491429</v>
+        <v>61004.491429000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.945692</v>
+        <v>16.945692000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.830000</v>
+        <v>1485.83</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.412000</v>
+        <v>-580.41200000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>61014.727162</v>
+        <v>61014.727162000003</v>
       </c>
       <c r="BT13" s="1">
         <v>16.948535</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.900000</v>
+        <v>1619.9</v>
       </c>
       <c r="BV13" s="1">
-        <v>-829.374000</v>
+        <v>-829.37400000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>61025.516878</v>
+        <v>61025.516878000002</v>
       </c>
       <c r="BY13" s="1">
         <v>16.951532</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.980000</v>
+        <v>1774.98</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1098.290000</v>
+        <v>-1098.29</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>61037.452569</v>
+        <v>61037.452569000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.954848</v>
+        <v>16.954847999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2195.180000</v>
+        <v>2195.1799999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1746.270000</v>
+        <v>-1746.27</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>60865.023384</v>
       </c>
       <c r="B14" s="1">
-        <v>16.906951</v>
+        <v>16.906950999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1148.180000</v>
+        <v>1148.18</v>
       </c>
       <c r="D14" s="1">
-        <v>-255.186000</v>
+        <v>-255.18600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>60875.116974</v>
+        <v>60875.116973999997</v>
       </c>
       <c r="G14" s="1">
-        <v>16.909755</v>
+        <v>16.909755000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1169.080000</v>
+        <v>1169.08</v>
       </c>
       <c r="I14" s="1">
-        <v>-214.403000</v>
+        <v>-214.40299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>60885.567649</v>
+        <v>60885.567648999997</v>
       </c>
       <c r="L14" s="1">
         <v>16.912658</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.510000</v>
+        <v>1195.51</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.166000</v>
+        <v>-149.166</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>60896.101719</v>
+        <v>60896.101718999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.915584</v>
+        <v>16.915583999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.130000</v>
+        <v>1203.1300000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.517000</v>
+        <v>-127.517</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>60906.585621</v>
+        <v>60906.585620999998</v>
       </c>
       <c r="V14" s="1">
-        <v>16.918496</v>
+        <v>16.918496000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.260000</v>
+        <v>1210.26</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.056000</v>
+        <v>-107.056</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>60917.321067</v>
+        <v>60917.321066999997</v>
       </c>
       <c r="AA14" s="1">
         <v>16.921478</v>
       </c>
       <c r="AB14" s="1">
-        <v>1217.820000</v>
+        <v>1217.82</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.414000</v>
+        <v>-90.414000000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>60928.183913</v>
+        <v>60928.183913000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.924496</v>
+        <v>16.924496000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.710000</v>
+        <v>1222.71</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.158400</v>
+        <v>-86.1584</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60938.673835</v>
+        <v>60938.673835000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.927409</v>
+        <v>16.927409000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.941400</v>
+        <v>-89.941400000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>60949.468238</v>
+        <v>60949.468238000001</v>
       </c>
       <c r="AP14" s="1">
         <v>16.930408</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.154000</v>
+        <v>-102.154</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>60960.469006</v>
+        <v>60960.469005999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.933464</v>
+        <v>16.933464000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.894000</v>
+        <v>-121.89400000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>60971.527839</v>
+        <v>60971.527839000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>16.936536</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.530000</v>
+        <v>1256.53</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.650000</v>
+        <v>-139.65</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>60982.480498</v>
+        <v>60982.480497999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.939578</v>
+        <v>16.939578000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.340000</v>
+        <v>-222.34</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>60993.752049</v>
+        <v>60993.752049000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.942709</v>
+        <v>16.942709000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.024000</v>
+        <v>-359.024</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>61004.616916</v>
+        <v>61004.616915999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.945727</v>
+        <v>16.945727000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.830000</v>
+        <v>1485.83</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.417000</v>
+        <v>-580.41700000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>61015.133597</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.948648</v>
+        <v>16.948647999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.970000</v>
+        <v>1619.97</v>
       </c>
       <c r="BV14" s="1">
-        <v>-829.465000</v>
+        <v>-829.46500000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>61025.943925</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.951651</v>
+        <v>16.951650999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.890000</v>
+        <v>1774.89</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1098.420000</v>
+        <v>-1098.42</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>61038.007591</v>
+        <v>61038.007591000001</v>
       </c>
       <c r="CD14" s="1">
         <v>16.955002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2195.770000</v>
+        <v>2195.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1745.060000</v>
+        <v>-1745.06</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>60865.287264</v>
+        <v>60865.287263999999</v>
       </c>
       <c r="B15" s="1">
         <v>16.907024</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.000000</v>
+        <v>1148</v>
       </c>
       <c r="D15" s="1">
-        <v>-255.164000</v>
+        <v>-255.16399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>60875.396190</v>
+        <v>60875.396189999999</v>
       </c>
       <c r="G15" s="1">
-        <v>16.909832</v>
+        <v>16.909832000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1168.780000</v>
+        <v>1168.78</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.272000</v>
+        <v>-214.27199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>60885.911874</v>
+        <v>60885.911873999998</v>
       </c>
       <c r="L15" s="1">
-        <v>16.912753</v>
+        <v>16.912752999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.069000</v>
+        <v>-149.06899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>60896.453348</v>
+        <v>60896.453348000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.915681</v>
+        <v>16.915680999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.030000</v>
+        <v>1203.03</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.502000</v>
+        <v>-127.502</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>60906.929356</v>
+        <v>60906.929356000001</v>
       </c>
       <c r="V15" s="1">
-        <v>16.918591</v>
+        <v>16.918590999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.030000</v>
+        <v>-107.03</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>60918.019234</v>
+        <v>60918.019233999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.921672</v>
+        <v>16.921672000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.480400</v>
+        <v>-90.480400000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>60928.527144</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.924591</v>
+        <v>16.924590999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.460000</v>
+        <v>1222.46</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.175300</v>
+        <v>-86.175299999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>60939.020010</v>
+        <v>60939.02001</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.927506</v>
+        <v>16.927506000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.886000</v>
+        <v>-89.885999999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>60949.845726</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.930513</v>
+        <v>16.930513000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.740000</v>
+        <v>1237.74</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>60960.833603</v>
+        <v>60960.833602999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.933565</v>
+        <v>16.933565000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.900000</v>
+        <v>1247.9000000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.909000</v>
+        <v>-121.90900000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>60972.204879</v>
+        <v>60972.204878999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.936724</v>
+        <v>16.936724000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.540000</v>
+        <v>1256.54</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.620000</v>
+        <v>-139.62</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>60982.888672</v>
+        <v>60982.888672000001</v>
       </c>
       <c r="BE15" s="1">
         <v>16.939691</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.304000</v>
+        <v>-222.304</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>60994.214818</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.942837</v>
+        <v>16.942837000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.059000</v>
+        <v>-359.05900000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>61005.023635</v>
+        <v>61005.023634999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.945840</v>
+        <v>16.94584</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.820000</v>
+        <v>1485.82</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.401000</v>
+        <v>-580.40099999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>61015.563157</v>
+        <v>61015.563156999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.948768</v>
+        <v>16.948768000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.110000</v>
+        <v>1620.11</v>
       </c>
       <c r="BV15" s="1">
-        <v>-829.472000</v>
+        <v>-829.47199999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>61026.390295</v>
+        <v>61026.390294999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.951775</v>
+        <v>16.951775000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.930000</v>
+        <v>1774.93</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1098.040000</v>
+        <v>-1098.04</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>61038.533858</v>
+        <v>61038.533858000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.955148</v>
+        <v>16.955148000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2195.700000</v>
+        <v>2195.6999999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1747.600000</v>
+        <v>-1747.6</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>60865.631492</v>
       </c>
       <c r="B16" s="1">
-        <v>16.907120</v>
+        <v>16.907119999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.140000</v>
+        <v>1148.1400000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.935000</v>
+        <v>-254.935</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>60875.738926</v>
+        <v>60875.738925999998</v>
       </c>
       <c r="G16" s="1">
         <v>16.909927</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.130000</v>
+        <v>1169.1300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.752000</v>
+        <v>-213.75200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>60886.258577</v>
+        <v>60886.258577000001</v>
       </c>
       <c r="L16" s="1">
-        <v>16.912850</v>
+        <v>16.912849999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.330000</v>
+        <v>1195.33</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.047000</v>
+        <v>-149.047</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>60897.148242</v>
+        <v>60897.148242000003</v>
       </c>
       <c r="Q16" s="1">
         <v>16.915875</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.100000</v>
+        <v>1203.0999999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.452000</v>
+        <v>-127.452</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>60907.615348</v>
+        <v>60907.615347999999</v>
       </c>
       <c r="V16" s="1">
         <v>16.918782</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.280000</v>
+        <v>1210.28</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.169000</v>
+        <v>-107.169</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>60918.364646</v>
+        <v>60918.364646000002</v>
       </c>
       <c r="AA16" s="1">
         <v>16.921768</v>
       </c>
       <c r="AB16" s="1">
-        <v>1217.730000</v>
+        <v>1217.73</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.486900</v>
+        <v>-90.486900000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>60928.871863</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.924687</v>
+        <v>16.924686999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.520000</v>
+        <v>1222.52</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.195500</v>
+        <v>-86.195499999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>60939.371210</v>
+        <v>60939.371209999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.927603</v>
+        <v>16.927603000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.904200</v>
+        <v>-89.904200000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>60950.506896</v>
+        <v>60950.506895999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.930696</v>
+        <v>16.930696000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>60961.571116</v>
+        <v>60961.571115999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.933770</v>
+        <v>16.933769999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.900000</v>
+        <v>1247.9000000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.892000</v>
+        <v>-121.892</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>60972.612559</v>
+        <v>60972.612559000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.936837</v>
+        <v>16.936837000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.632000</v>
+        <v>-139.63200000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>60983.276544</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.939799</v>
+        <v>16.939799000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.291000</v>
+        <v>-222.291</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>60994.602707</v>
+        <v>60994.602706999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.942945</v>
+        <v>16.942945000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.010000</v>
+        <v>1369.01</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.076000</v>
+        <v>-359.07600000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>61005.420930</v>
+        <v>61005.42093</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.945950</v>
+        <v>16.94595</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.860000</v>
+        <v>1485.86</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.397000</v>
+        <v>-580.39700000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>61015.984724</v>
+        <v>61015.984724000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.948885</v>
+        <v>16.948885000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.050000</v>
+        <v>1620.05</v>
       </c>
       <c r="BV16" s="1">
-        <v>-829.526000</v>
+        <v>-829.52599999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>61026.827766</v>
+        <v>61026.827766000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.951897</v>
+        <v>16.951896999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.730000</v>
+        <v>1774.73</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1098.110000</v>
+        <v>-1098.1099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>61039.052212</v>
+        <v>61039.052212000002</v>
       </c>
       <c r="CD16" s="1">
         <v>16.955292</v>
       </c>
       <c r="CE16" s="1">
-        <v>2197.830000</v>
+        <v>2197.83</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1746.970000</v>
+        <v>-1746.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>60865.972203</v>
+        <v>60865.972202999998</v>
       </c>
       <c r="B17" s="1">
-        <v>16.907215</v>
+        <v>16.907215000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.030000</v>
+        <v>1148.03</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.201000</v>
+        <v>-255.20099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>60876.085629</v>
+        <v>60876.085629000001</v>
       </c>
       <c r="G17" s="1">
         <v>16.910024</v>
       </c>
       <c r="H17" s="1">
-        <v>1168.040000</v>
+        <v>1168.04</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.036000</v>
+        <v>-214.036</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>60886.954467</v>
+        <v>60886.954467000003</v>
       </c>
       <c r="L17" s="1">
-        <v>16.913043</v>
+        <v>16.913042999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.530000</v>
+        <v>1195.53</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.048000</v>
+        <v>-149.048</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>60897.496967</v>
+        <v>60897.496966999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.915971</v>
+        <v>16.915970999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.150000</v>
+        <v>1203.1500000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.439000</v>
+        <v>-127.43899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>60907.961523</v>
+        <v>60907.961522999998</v>
       </c>
       <c r="V17" s="1">
-        <v>16.918878</v>
+        <v>16.918877999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.300000</v>
+        <v>1210.3</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.913000</v>
+        <v>-106.913</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>60918.716278</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.921866</v>
+        <v>16.921866000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1217.750000</v>
+        <v>1217.75</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.472800</v>
+        <v>-90.472800000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>60929.523111</v>
+        <v>60929.523111000002</v>
       </c>
       <c r="AF17" s="1">
         <v>16.924868</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.199900</v>
+        <v>-86.1999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>60940.030858</v>
+        <v>60940.030857999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.927786</v>
+        <v>16.927786000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.910200</v>
+        <v>-89.910200000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>60950.919036</v>
+        <v>60950.919035999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.930811</v>
+        <v>16.930810999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>60961.956046</v>
+        <v>60961.956045999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.933877</v>
+        <v>16.933876999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.870000</v>
+        <v>-121.87</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>60972.988565</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.936941</v>
+        <v>16.936941000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.550000</v>
+        <v>1256.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.630000</v>
+        <v>-139.63</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>60983.639651</v>
+        <v>60983.639650999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.939900</v>
+        <v>16.939900000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.322000</v>
+        <v>-222.322</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>60995.203344</v>
+        <v>60995.203344000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.943112</v>
+        <v>16.943111999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.040000</v>
+        <v>-359.04</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>61005.844611</v>
@@ -4531,754 +4947,754 @@
         <v>16.946068</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.830000</v>
+        <v>1485.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.435000</v>
+        <v>-580.43499999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>61016.393818</v>
+        <v>61016.393817999997</v>
       </c>
       <c r="BT17" s="1">
         <v>16.948998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.220000</v>
+        <v>1620.22</v>
       </c>
       <c r="BV17" s="1">
-        <v>-829.531000</v>
+        <v>-829.53099999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>61027.246389</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.952013</v>
+        <v>16.952013000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1775.070000</v>
+        <v>1775.07</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1098.040000</v>
+        <v>-1098.04</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>61039.569034</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.955436</v>
+        <v>16.955435999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2197.390000</v>
+        <v>2197.39</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1745.380000</v>
+        <v>-1745.38</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>60866.653706</v>
+        <v>60866.653705999997</v>
       </c>
       <c r="B18" s="1">
         <v>16.907404</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.340000</v>
+        <v>1148.3399999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.175000</v>
+        <v>-255.17500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>60876.774605</v>
+        <v>60876.774604999999</v>
       </c>
       <c r="G18" s="1">
-        <v>16.910215</v>
+        <v>16.910215000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1169.200000</v>
+        <v>1169.2</v>
       </c>
       <c r="I18" s="1">
-        <v>-214.119000</v>
+        <v>-214.119</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>60887.304649</v>
+        <v>60887.304648999998</v>
       </c>
       <c r="L18" s="1">
-        <v>16.913140</v>
+        <v>16.913139999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.410000</v>
+        <v>1195.4100000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.108000</v>
+        <v>-149.108</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>60897.847105</v>
+        <v>60897.847105000001</v>
       </c>
       <c r="Q18" s="1">
         <v>16.916069</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.140000</v>
+        <v>1203.1400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.431000</v>
+        <v>-127.431</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>60908.303267</v>
+        <v>60908.303267000003</v>
       </c>
       <c r="V18" s="1">
-        <v>16.918973</v>
+        <v>16.918973000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.420000</v>
+        <v>1210.42</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.981000</v>
+        <v>-106.98099999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>60919.374964</v>
+        <v>60919.374964000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.922049</v>
+        <v>16.922049000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.430900</v>
+        <v>-90.430899999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>60929.897592</v>
+        <v>60929.897592000001</v>
       </c>
       <c r="AF18" s="1">
         <v>16.924972</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.244100</v>
+        <v>-86.244100000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>60940.414296</v>
+        <v>60940.414296000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.927893</v>
+        <v>16.927893000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.902900</v>
+        <v>-89.902900000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>60951.279627</v>
+        <v>60951.279627000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.930911</v>
+        <v>16.930910999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.208000</v>
+        <v>-102.208</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>60962.319084</v>
+        <v>60962.319084000002</v>
       </c>
       <c r="AU18" s="1">
         <v>16.933978</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.950000</v>
+        <v>1247.95</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.906000</v>
+        <v>-121.90600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>60973.367506</v>
+        <v>60973.367506000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>16.937047</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.659000</v>
+        <v>-139.65899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>60984.059727</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.940017</v>
+        <v>16.940017000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.301000</v>
+        <v>-222.30099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>60995.355120</v>
+        <v>60995.35512</v>
       </c>
       <c r="BJ18" s="1">
         <v>16.943154</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.010000</v>
+        <v>1369.01</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.055000</v>
+        <v>-359.05500000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>61006.238864</v>
+        <v>61006.238863999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.946177</v>
+        <v>16.946176999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.860000</v>
+        <v>1485.86</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.392000</v>
+        <v>-580.39200000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>61016.810565</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.949114</v>
+        <v>16.949114000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.260000</v>
+        <v>1620.26</v>
       </c>
       <c r="BV18" s="1">
-        <v>-829.642000</v>
+        <v>-829.64200000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>61027.688325</v>
+        <v>61027.688325000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.952136</v>
+        <v>16.952135999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.740000</v>
+        <v>1774.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1098.230000</v>
+        <v>-1098.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>61040.087317</v>
+        <v>61040.087316999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.955580</v>
+        <v>16.955580000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2195.860000</v>
+        <v>2195.86</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1745.500000</v>
+        <v>-1745.5</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>60866.998458</v>
+        <v>60866.998458000002</v>
       </c>
       <c r="B19" s="1">
-        <v>16.907500</v>
+        <v>16.907499999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.250000</v>
+        <v>1148.25</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.107000</v>
+        <v>-255.107</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>60877.118300</v>
+        <v>60877.118300000002</v>
       </c>
       <c r="G19" s="1">
         <v>16.910311</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.280000</v>
+        <v>1169.28</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.200000</v>
+        <v>-214.2</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>60887.651870</v>
+        <v>60887.651870000002</v>
       </c>
       <c r="L19" s="1">
-        <v>16.913237</v>
+        <v>16.913236999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.470000</v>
+        <v>1195.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.218000</v>
+        <v>-149.21799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>60898.500832</v>
+        <v>60898.500831999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.916250</v>
+        <v>16.916250000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.130000</v>
+        <v>1203.1300000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.538000</v>
+        <v>-127.538</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>60908.969928</v>
+        <v>60908.969927999999</v>
       </c>
       <c r="V19" s="1">
-        <v>16.919158</v>
+        <v>16.919157999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.924000</v>
+        <v>-106.92400000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>60919.759364</v>
+        <v>60919.759363999998</v>
       </c>
       <c r="AA19" s="1">
         <v>16.922155</v>
       </c>
       <c r="AB19" s="1">
-        <v>1217.930000</v>
+        <v>1217.93</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.386600</v>
+        <v>-90.386600000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>60930.243312</v>
+        <v>60930.243311999999</v>
       </c>
       <c r="AF19" s="1">
         <v>16.925068</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.203000</v>
+        <v>-86.203000000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>60940.766424</v>
+        <v>60940.766424000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.927991</v>
+        <v>16.927990999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.902300</v>
+        <v>-89.902299999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>60951.637770</v>
+        <v>60951.637770000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.931010</v>
+        <v>16.931010000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.730000</v>
+        <v>1237.73</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>60962.751099</v>
+        <v>60962.751099000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.934098</v>
+        <v>16.934097999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.892000</v>
+        <v>-121.892</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>60973.784636</v>
+        <v>60973.784635999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.937162</v>
+        <v>16.937162000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1256.530000</v>
+        <v>1256.53</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.637000</v>
+        <v>-139.637</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>60984.362287</v>
+        <v>60984.362287000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.940101</v>
+        <v>16.940100999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.311000</v>
+        <v>-222.31100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>60995.763824</v>
+        <v>60995.763824000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>16.943268</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.034000</v>
+        <v>-359.03399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>61006.657457</v>
+        <v>61006.657457000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.946294</v>
+        <v>16.946294000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.830000</v>
+        <v>1485.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.449000</v>
+        <v>-580.44899999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>61017.224723</v>
+        <v>61017.224722999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.949229</v>
+        <v>16.949228999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.340000</v>
+        <v>1620.34</v>
       </c>
       <c r="BV19" s="1">
-        <v>-829.519000</v>
+        <v>-829.51900000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>61028.121370</v>
+        <v>61028.121370000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.952256</v>
+        <v>16.952255999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.910000</v>
+        <v>1774.91</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1098.190000</v>
+        <v>-1098.19</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>61040.607620</v>
+        <v>61040.607620000002</v>
       </c>
       <c r="CD19" s="1">
         <v>16.955724</v>
       </c>
       <c r="CE19" s="1">
-        <v>2196.280000</v>
+        <v>2196.2800000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1747.570000</v>
+        <v>-1747.57</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>60867.340317</v>
+        <v>60867.340317000002</v>
       </c>
       <c r="B20" s="1">
-        <v>16.907595</v>
+        <v>16.907595000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.010000</v>
+        <v>1148.01</v>
       </c>
       <c r="D20" s="1">
-        <v>-254.965000</v>
+        <v>-254.965</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>60877.468972</v>
+        <v>60877.468972000002</v>
       </c>
       <c r="G20" s="1">
         <v>16.910408</v>
       </c>
       <c r="H20" s="1">
-        <v>1169.010000</v>
+        <v>1169.01</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.554000</v>
+        <v>-214.554</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>60888.319453</v>
+        <v>60888.319452999996</v>
       </c>
       <c r="L20" s="1">
-        <v>16.913422</v>
+        <v>16.913422000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.630000</v>
+        <v>1195.6300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.183000</v>
+        <v>-149.18299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>60898.894159</v>
+        <v>60898.894159000003</v>
       </c>
       <c r="Q20" s="1">
         <v>16.916359</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.110000</v>
+        <v>1203.1099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.515000</v>
+        <v>-127.515</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>60909.333459</v>
+        <v>60909.333459000001</v>
       </c>
       <c r="V20" s="1">
         <v>16.919259</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.230000</v>
+        <v>1210.23</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.942000</v>
+        <v>-106.94199999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>60920.110563</v>
+        <v>60920.110563000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.922253</v>
+        <v>16.922253000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.344000</v>
+        <v>-90.343999999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>60930.586534</v>
+        <v>60930.586534000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.925163</v>
+        <v>16.925163000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.279300</v>
+        <v>-86.279300000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>60941.112659</v>
+        <v>60941.112658999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.928087</v>
+        <v>16.928087000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.904600</v>
+        <v>-89.904600000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>60952.061849</v>
+        <v>60952.061848999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.931128</v>
+        <v>16.931128000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>60963.053162</v>
+        <v>60963.053161999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.934181</v>
+        <v>16.934180999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.880000</v>
+        <v>-121.88</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>60974.082700</v>
+        <v>60974.082699999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.937245</v>
+        <v>16.937245000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.540000</v>
+        <v>1256.54</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.615000</v>
+        <v>-139.61500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>60984.722382</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.940201</v>
+        <v>16.940200999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.700000</v>
+        <v>1297.7</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.330000</v>
+        <v>-222.33</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>60996.138799</v>
@@ -5287,165 +5703,165 @@
         <v>16.943372</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.066000</v>
+        <v>-359.06599999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>61007.054762</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.946404</v>
+        <v>16.946404000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.820000</v>
+        <v>1485.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.392000</v>
+        <v>-580.39200000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>61017.644376</v>
+        <v>61017.644375999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.949346</v>
+        <v>16.949345999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.390000</v>
+        <v>1620.39</v>
       </c>
       <c r="BV20" s="1">
-        <v>-829.564000</v>
+        <v>-829.56399999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>61028.544460</v>
+        <v>61028.544459999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.952373</v>
+        <v>16.952373000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1775.030000</v>
+        <v>1775.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1098.230000</v>
+        <v>-1098.23</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>61041.125045</v>
+        <v>61041.125045000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.955868</v>
+        <v>16.955867999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2195.730000</v>
+        <v>2195.73</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1747.250000</v>
+        <v>-1747.25</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>60867.991417</v>
+        <v>60867.991416999997</v>
       </c>
       <c r="B21" s="1">
-        <v>16.907775</v>
+        <v>16.907775000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1147.970000</v>
+        <v>1147.97</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.470000</v>
+        <v>-255.47</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>60878.129675</v>
+        <v>60878.129674999996</v>
       </c>
       <c r="G21" s="1">
-        <v>16.910592</v>
+        <v>16.910592000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.020000</v>
+        <v>1169.02</v>
       </c>
       <c r="I21" s="1">
-        <v>-213.356000</v>
+        <v>-213.35599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>60888.684509</v>
+        <v>60888.684508999999</v>
       </c>
       <c r="L21" s="1">
-        <v>16.913523</v>
+        <v>16.913523000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.330000</v>
+        <v>1195.33</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.141000</v>
+        <v>-149.14099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>60899.241391</v>
+        <v>60899.241391000003</v>
       </c>
       <c r="Q21" s="1">
         <v>16.916456</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.060000</v>
+        <v>1203.06</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.481000</v>
+        <v>-127.48099999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>60909.678209</v>
+        <v>60909.678208999998</v>
       </c>
       <c r="V21" s="1">
-        <v>16.919355</v>
+        <v>16.919354999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.260000</v>
+        <v>1210.26</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.984000</v>
+        <v>-106.98399999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>60920.458757</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.922350</v>
+        <v>16.922350000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.405200</v>
+        <v>-90.405199999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>60931.018054</v>
@@ -5454,799 +5870,799 @@
         <v>16.925283</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.670000</v>
+        <v>1222.67</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.929200</v>
+        <v>-85.929199999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>60941.538695</v>
+        <v>60941.538695000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.928205</v>
+        <v>16.928204999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.909400</v>
+        <v>-89.909400000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>60952.358425</v>
+        <v>60952.358424999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.931211</v>
+        <v>16.931211000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.670000</v>
+        <v>1237.67</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.204000</v>
+        <v>-102.20399999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>60963.415244</v>
+        <v>60963.415244000003</v>
       </c>
       <c r="AU21" s="1">
         <v>16.934282</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.848000</v>
+        <v>-121.848</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>60974.443292</v>
+        <v>60974.443292000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.937345</v>
+        <v>16.937345000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.627000</v>
+        <v>-139.62700000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>60985.083000</v>
+        <v>60985.082999999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.940301</v>
+        <v>16.940301000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.329000</v>
+        <v>-222.32900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>60996.914047</v>
+        <v>60996.914046999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.943587</v>
+        <v>16.943587000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.980000</v>
+        <v>1368.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.068000</v>
+        <v>-359.06799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>61007.485280</v>
+        <v>61007.485280000001</v>
       </c>
       <c r="BO21" s="1">
         <v>16.946524</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.810000</v>
+        <v>1485.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.361000</v>
+        <v>-580.36099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>61018.055026</v>
+        <v>61018.055026000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.949460</v>
+        <v>16.949459999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.460000</v>
+        <v>1620.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-829.542000</v>
+        <v>-829.54200000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>61028.962052</v>
+        <v>61028.962052000003</v>
       </c>
       <c r="BY21" s="1">
         <v>16.952489</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.940000</v>
+        <v>1774.94</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1098.030000</v>
+        <v>-1098.03</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>61041.677492</v>
+        <v>61041.677492000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.956022</v>
+        <v>16.956022000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.870000</v>
+        <v>2195.87</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1745.720000</v>
+        <v>-1745.72</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>60868.363912</v>
+        <v>60868.363912000001</v>
       </c>
       <c r="B22" s="1">
-        <v>16.907879</v>
+        <v>16.907879000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.340000</v>
+        <v>1148.3399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-255.115000</v>
+        <v>-255.11500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>60878.518547</v>
       </c>
       <c r="G22" s="1">
-        <v>16.910700</v>
+        <v>16.910699999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1168.570000</v>
+        <v>1168.57</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.297000</v>
+        <v>-214.297</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>60889.030717</v>
+        <v>60889.030717000001</v>
       </c>
       <c r="L22" s="1">
-        <v>16.913620</v>
+        <v>16.913620000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.510000</v>
+        <v>1195.51</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.237000</v>
+        <v>-149.23699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>60899.591040</v>
+        <v>60899.591039999999</v>
       </c>
       <c r="Q22" s="1">
         <v>16.916553</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.090000</v>
+        <v>1203.0899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.473000</v>
+        <v>-127.473</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>60910.027362</v>
+        <v>60910.027362000001</v>
       </c>
       <c r="V22" s="1">
         <v>16.919452</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.240000</v>
+        <v>1210.24</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.952000</v>
+        <v>-106.952</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>60920.877378</v>
+        <v>60920.877377999997</v>
       </c>
       <c r="AA22" s="1">
         <v>16.922466</v>
       </c>
       <c r="AB22" s="1">
-        <v>1217.710000</v>
+        <v>1217.71</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.378800</v>
+        <v>-90.378799999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>60931.274981</v>
+        <v>60931.274981000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.925354</v>
+        <v>16.925353999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.038800</v>
+        <v>-86.038799999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>60941.824392</v>
+        <v>60941.824392000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.928285</v>
+        <v>16.928284999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.906700</v>
+        <v>-89.906700000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>60952.718029</v>
+        <v>60952.718029000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.931311</v>
+        <v>16.931311000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>60963.781787</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.934384</v>
+        <v>16.934384000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.879000</v>
+        <v>-121.879</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>60974.801900</v>
+        <v>60974.801899999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.937445</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.550000</v>
+        <v>1256.55</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.619000</v>
+        <v>-139.619</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>60985.804188</v>
+        <v>60985.804188000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.940501</v>
+        <v>16.940501000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.298000</v>
+        <v>-222.298</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>60997.291501</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.943692</v>
+        <v>16.943691999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.950000</v>
+        <v>1368.95</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.042000</v>
+        <v>-359.04199999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>61007.884559</v>
+        <v>61007.884558999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.946635</v>
+        <v>16.946635000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.880000</v>
+        <v>1485.88</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.447000</v>
+        <v>-580.447</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>61018.493491</v>
+        <v>61018.493491000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.949582</v>
+        <v>16.949581999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.600000</v>
+        <v>1620.6</v>
       </c>
       <c r="BV22" s="1">
-        <v>-829.555000</v>
+        <v>-829.55499999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>61029.702614</v>
+        <v>61029.702614000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.952695</v>
+        <v>16.952694999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.810000</v>
+        <v>1774.81</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1098.040000</v>
+        <v>-1098.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>61042.523196</v>
+        <v>61042.523196000002</v>
       </c>
       <c r="CD22" s="1">
         <v>16.956256</v>
       </c>
       <c r="CE22" s="1">
-        <v>2196.200000</v>
+        <v>2196.1999999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1747.330000</v>
+        <v>-1747.33</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>60868.710617</v>
+        <v>60868.710616999997</v>
       </c>
       <c r="B23" s="1">
         <v>16.907975</v>
       </c>
       <c r="C23" s="1">
-        <v>1147.930000</v>
+        <v>1147.93</v>
       </c>
       <c r="D23" s="1">
-        <v>-255.226000</v>
+        <v>-255.226</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>60878.852846</v>
+        <v>60878.852846000002</v>
       </c>
       <c r="G23" s="1">
-        <v>16.910792</v>
+        <v>16.910792000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1168.550000</v>
+        <v>1168.55</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.036000</v>
+        <v>-214.036</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>60889.377457</v>
+        <v>60889.377457000002</v>
       </c>
       <c r="L23" s="1">
-        <v>16.913716</v>
+        <v>16.913716000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.500000</v>
+        <v>1195.5</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.284000</v>
+        <v>-149.28399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>60900.012142</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.916670</v>
+        <v>16.91667</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.160000</v>
+        <v>1203.1600000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.484000</v>
+        <v>-127.48399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>60910.466816</v>
       </c>
       <c r="V23" s="1">
-        <v>16.919574</v>
+        <v>16.919574000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.320000</v>
+        <v>1210.32</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.094000</v>
+        <v>-107.09399999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>60921.158579</v>
+        <v>60921.158579000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.922544</v>
+        <v>16.922543999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.593900</v>
+        <v>-90.593900000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>60931.618708</v>
+        <v>60931.618708000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.925450</v>
+        <v>16.925450000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.197800</v>
+        <v>-86.197800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>60942.170636</v>
+        <v>60942.170636000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.928381</v>
+        <v>16.928381000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.902700</v>
+        <v>-89.902699999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>60953.079609</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.931411</v>
+        <v>16.931411000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.170000</v>
+        <v>-102.17</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>60964.507963</v>
+        <v>60964.507962999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.934586</v>
+        <v>16.934585999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.908000</v>
+        <v>-121.908</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>60975.518619</v>
+        <v>60975.518619000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.937644</v>
+        <v>16.937643999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1256.560000</v>
+        <v>1256.56</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.608000</v>
+        <v>-139.608</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>60986.166733</v>
+        <v>60986.166732999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.940602</v>
+        <v>16.940601999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.690000</v>
+        <v>1297.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.315000</v>
+        <v>-222.315</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>60997.665020</v>
+        <v>60997.66502</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.943796</v>
+        <v>16.943795999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.112000</v>
+        <v>-359.11200000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>61008.293263</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.946748</v>
+        <v>16.946747999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.890000</v>
+        <v>1485.89</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.460000</v>
+        <v>-580.46</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>61019.236496</v>
+        <v>61019.236495999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.949788</v>
+        <v>16.949788000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.490000</v>
+        <v>1620.49</v>
       </c>
       <c r="BV23" s="1">
-        <v>-829.434000</v>
+        <v>-829.43399999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>61029.829556</v>
+        <v>61029.829555999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.952730</v>
+        <v>16.952729999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.800000</v>
+        <v>1774.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1098.290000</v>
+        <v>-1098.29</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>61042.759265</v>
+        <v>61042.759265000001</v>
       </c>
       <c r="CD23" s="1">
         <v>16.956322</v>
       </c>
       <c r="CE23" s="1">
-        <v>2197.790000</v>
+        <v>2197.79</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1746.230000</v>
+        <v>-1746.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>60869.050376</v>
+        <v>60869.050375999999</v>
       </c>
       <c r="B24" s="1">
-        <v>16.908070</v>
+        <v>16.908069999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.070000</v>
+        <v>1148.07</v>
       </c>
       <c r="D24" s="1">
-        <v>-255.218000</v>
+        <v>-255.21799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>60879.274411</v>
+        <v>60879.274410999999</v>
       </c>
       <c r="G24" s="1">
-        <v>16.910910</v>
+        <v>16.910910000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.090000</v>
+        <v>1169.0899999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-213.717000</v>
+        <v>-213.71700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>60889.808479</v>
+        <v>60889.808478999999</v>
       </c>
       <c r="L24" s="1">
         <v>16.913836</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.570000</v>
+        <v>1195.57</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.259000</v>
+        <v>-149.25899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>60900.289903</v>
+        <v>60900.289902999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.916747</v>
+        <v>16.916747000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.160000</v>
+        <v>1203.1600000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.476000</v>
+        <v>-127.476</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>60910.730689</v>
+        <v>60910.730689000004</v>
       </c>
       <c r="V24" s="1">
-        <v>16.919647</v>
+        <v>16.919647000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.420000</v>
+        <v>1210.42</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.113000</v>
+        <v>-107.113</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>60921.503793</v>
+        <v>60921.503793000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.922640</v>
+        <v>16.922640000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.392500</v>
+        <v>-90.392499999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>60931.965443</v>
+        <v>60931.965443000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.925546</v>
+        <v>16.925546000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.480000</v>
+        <v>1222.48</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.222300</v>
+        <v>-86.222300000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>60942.519815</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.928478</v>
+        <v>16.928477999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.900500</v>
+        <v>-89.900499999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>60953.799303</v>
@@ -6255,150 +6671,150 @@
         <v>16.931611</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.720000</v>
+        <v>1237.72</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.207000</v>
+        <v>-102.20699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>60964.872984</v>
+        <v>60964.872984000001</v>
       </c>
       <c r="AU24" s="1">
         <v>16.934687</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.899000</v>
+        <v>-121.899</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>60975.876761</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.937744</v>
+        <v>16.937743999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1256.520000</v>
+        <v>1256.52</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.635000</v>
+        <v>-139.63499999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>60986.529803</v>
+        <v>60986.529802999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.940703</v>
+        <v>16.940702999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.283000</v>
+        <v>-222.28299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>60998.361867</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.943989</v>
+        <v>16.943988999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.960000</v>
+        <v>1368.96</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.032000</v>
+        <v>-359.03199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>61009.012959</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.946948</v>
+        <v>16.946947999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.870000</v>
+        <v>1485.87</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.423000</v>
+        <v>-580.423</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>61019.366944</v>
+        <v>61019.366944000001</v>
       </c>
       <c r="BT24" s="1">
         <v>16.949824</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.690000</v>
+        <v>1620.69</v>
       </c>
       <c r="BV24" s="1">
-        <v>-829.499000</v>
+        <v>-829.49900000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>61030.241265</v>
+        <v>61030.241264999997</v>
       </c>
       <c r="BY24" s="1">
         <v>16.952845</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.920000</v>
+        <v>1774.92</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1098.260000</v>
+        <v>-1098.26</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>61043.295440</v>
+        <v>61043.295440000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.956471</v>
+        <v>16.956471000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2195.570000</v>
+        <v>2195.5700000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1745.420000</v>
+        <v>-1745.42</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>60869.472977</v>
+        <v>60869.472976999998</v>
       </c>
       <c r="B25" s="1">
-        <v>16.908187</v>
+        <v>16.908187000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.120000</v>
+        <v>1148.1199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-255.186000</v>
+        <v>-255.18600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>60879.571054</v>
@@ -6407,103 +6823,103 @@
         <v>16.910992</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.290000</v>
+        <v>1169.29</v>
       </c>
       <c r="I25" s="1">
-        <v>-213.977000</v>
+        <v>-213.977</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>60890.080252</v>
       </c>
       <c r="L25" s="1">
-        <v>16.913911</v>
+        <v>16.913910999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.176000</v>
+        <v>-149.17599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>60900.634621</v>
+        <v>60900.634620999997</v>
       </c>
       <c r="Q25" s="1">
         <v>16.916843</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.140000</v>
+        <v>1203.1400000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.520000</v>
+        <v>-127.52</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>60911.076896</v>
+        <v>60911.076895999999</v>
       </c>
       <c r="V25" s="1">
-        <v>16.919744</v>
+        <v>16.919744000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.430000</v>
+        <v>1210.43</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.972000</v>
+        <v>-106.97199999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>60921.852186</v>
+        <v>60921.852185999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.922737</v>
+        <v>16.922737000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.840000</v>
+        <v>1217.8399999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.405600</v>
+        <v>-90.405600000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>60932.653396</v>
+        <v>60932.653396000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.925737</v>
+        <v>16.925737000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.460000</v>
+        <v>1222.46</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.356800</v>
+        <v>-86.356800000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>60943.207733</v>
+        <v>60943.207733000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.928669</v>
+        <v>16.928668999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.914700</v>
+        <v>-89.914699999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>60954.159905</v>
@@ -6512,392 +6928,393 @@
         <v>16.931711</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.720000</v>
+        <v>1237.72</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.197000</v>
+        <v>-102.197</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>60965.239563</v>
+        <v>60965.239563000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.934789</v>
+        <v>16.934788999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.889000</v>
+        <v>-121.889</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>60976.237352</v>
+        <v>60976.237351999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.937844</v>
+        <v>16.937843999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1256.540000</v>
+        <v>1256.54</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.645000</v>
+        <v>-139.64500000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>60987.210812</v>
+        <v>60987.210811999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.940892</v>
+        <v>16.940892000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.316000</v>
+        <v>-222.316</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>60998.821661</v>
+        <v>60998.821661000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.944117</v>
+        <v>16.944116999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.980000</v>
+        <v>1368.98</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.045000</v>
+        <v>-359.04500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>61009.128525</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.946980</v>
+        <v>16.94698</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.890000</v>
+        <v>1485.89</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.432000</v>
+        <v>-580.43200000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>61019.779152</v>
+        <v>61019.779152000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.949939</v>
+        <v>16.949939000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.700000</v>
+        <v>1620.7</v>
       </c>
       <c r="BV25" s="1">
-        <v>-829.360000</v>
+        <v>-829.36</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>61030.664353</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.952962</v>
+        <v>16.952961999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.930000</v>
+        <v>1774.93</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1098.180000</v>
+        <v>-1098.18</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>61043.830661</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.956620</v>
+        <v>16.956620000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2197.020000</v>
+        <v>2197.02</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1747.380000</v>
+        <v>-1747.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>60869.752218</v>
+        <v>60869.752218000001</v>
       </c>
       <c r="B26" s="1">
         <v>16.908265</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.230000</v>
+        <v>1148.23</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.245000</v>
+        <v>-255.245</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>60879.917720</v>
+        <v>60879.917719999998</v>
       </c>
       <c r="G26" s="1">
-        <v>16.911088</v>
+        <v>16.911087999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.400000</v>
+        <v>1169.4000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.557000</v>
+        <v>-213.55699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>60890.428442</v>
+        <v>60890.428441999997</v>
       </c>
       <c r="L26" s="1">
-        <v>16.914008</v>
+        <v>16.914007999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.260000</v>
+        <v>1195.26</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.216000</v>
+        <v>-149.21600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>60900.986326</v>
+        <v>60900.986325999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.916941</v>
+        <v>16.916941000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.100000</v>
+        <v>1203.0999999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.515000</v>
+        <v>-127.515</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>60911.757935</v>
+        <v>60911.757935000001</v>
       </c>
       <c r="V26" s="1">
         <v>16.919933</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.380000</v>
+        <v>1210.3800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.102000</v>
+        <v>-107.102</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>60922.551345</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.922931</v>
+        <v>16.922930999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1217.800000</v>
+        <v>1217.8</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.417200</v>
+        <v>-90.417199999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>60932.992628</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.925831</v>
+        <v>16.925830999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.680000</v>
+        <v>1222.68</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.111900</v>
+        <v>-86.111900000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>60943.566836</v>
+        <v>60943.566835999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.928769</v>
+        <v>16.928768999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.906200</v>
+        <v>-89.906199999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>60954.520485</v>
+        <v>60954.520485000001</v>
       </c>
       <c r="AP26" s="1">
         <v>16.931811</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.164000</v>
+        <v>-102.164</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>60965.907672</v>
+        <v>60965.907672000001</v>
       </c>
       <c r="AU26" s="1">
         <v>16.934974</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.892000</v>
+        <v>-121.892</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>60976.906424</v>
+        <v>60976.906424000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.938030</v>
+        <v>16.938030000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.570000</v>
+        <v>1256.57</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.641000</v>
+        <v>-139.64099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>60987.636905</v>
+        <v>60987.636904999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.941010</v>
+        <v>16.941009999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.311000</v>
+        <v>-222.31100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>60999.212010</v>
+        <v>60999.212010000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>16.944226</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.040000</v>
+        <v>1369.04</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.104000</v>
+        <v>-359.10399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>61009.537230</v>
+        <v>61009.537230000002</v>
       </c>
       <c r="BO26" s="1">
         <v>16.947094</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.910000</v>
+        <v>1485.91</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.405000</v>
+        <v>-580.40499999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>61020.207697</v>
+        <v>61020.207696999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.950058</v>
+        <v>16.950057999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.720000</v>
+        <v>1620.72</v>
       </c>
       <c r="BV26" s="1">
-        <v>-829.314000</v>
+        <v>-829.31399999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>61031.092865</v>
+        <v>61031.092864999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.953081</v>
+        <v>16.953081000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.720000</v>
+        <v>1774.72</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1098.120000</v>
+        <v>-1098.1199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>61044.372751</v>
+        <v>61044.372751000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.956770</v>
+        <v>16.956769999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2197.540000</v>
+        <v>2197.54</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1745.060000</v>
+        <v>-1745.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>